--- a/website_content_creation/authors/Erin_Matula/Author_form_em.xlsx
+++ b/website_content_creation/authors/Erin_Matula/Author_form_em.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Erin_Matula/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{70FCDF86-D160-47AB-A4C8-FCA513196FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C81B1D3-1A22-452C-A359-070D567C6209}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{70FCDF86-D160-47AB-A4C8-FCA513196FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2450F9E5-8B66-4EF1-88C7-F5CC032DA3C9}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37725" yWindow="-1500" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,18 +144,9 @@
     <t>https://gammathetaupsilon.org/</t>
   </si>
   <si>
-    <t>XC Skiing</t>
-  </si>
-  <si>
-    <t>backpacking</t>
-  </si>
-  <si>
     <t>MTN Biking</t>
   </si>
   <si>
-    <t>Ultimate Frisbee/Guts</t>
-  </si>
-  <si>
     <t>https://ematula3.github.io/VTFdash/webhost.html</t>
   </si>
   <si>
@@ -168,10 +159,19 @@
     <t>Visiting and Co-supervised Students</t>
   </si>
   <si>
-    <t>Fishing</t>
-  </si>
-  <si>
-    <t>Foraging wild foods</t>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>Limnology</t>
+  </si>
+  <si>
+    <t>Fishing and Foraging</t>
+  </si>
+  <si>
+    <t>Backpacking</t>
+  </si>
+  <si>
+    <t>Fire Ecology</t>
   </si>
 </sst>
 </file>
@@ -823,7 +823,7 @@
   <dimension ref="A1:D1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -938,7 +938,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1021,10 +1021,10 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1063,32 +1063,32 @@
     </row>
     <row r="35" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>48</v>
+      <c r="A36" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/website_content_creation/authors/Erin_Matula/Author_form_em.xlsx
+++ b/website_content_creation/authors/Erin_Matula/Author_form_em.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Erin_Matula/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{70FCDF86-D160-47AB-A4C8-FCA513196FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C72F8E2-E6F9-4E0D-AB97-BF3A4583D358}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{70FCDF86-D160-47AB-A4C8-FCA513196FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D311DA32-92D5-4165-A582-EE2ACEC340BA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14235" yWindow="-16395" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>erm04417@gmail.com</t>
   </si>
   <si>
-    <t>ematula3</t>
-  </si>
-  <si>
     <t>Andrew Tanentzap and Erik Emilson</t>
   </si>
   <si>
@@ -172,13 +169,16 @@
   </si>
   <si>
     <t>M.Sc. Student, Trent University</t>
+  </si>
+  <si>
+    <t>www.github.com/ematula3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,13 +210,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -559,14 +552,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -588,7 +580,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
@@ -605,12 +597,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -830,7 +822,7 @@
   <dimension ref="A1:D1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -864,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -882,7 +874,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -890,8 +882,8 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>30</v>
+      <c r="B7" s="28" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -901,13 +893,13 @@
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3"/>
@@ -917,22 +909,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>31</v>
+      <c r="B12" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5"/>
@@ -941,11 +933,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -957,145 +949,145 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>2022</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="37"/>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="B27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="21"/>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>43</v>
+      <c r="A35" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+    <row r="39" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2069,6 +2061,7 @@
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{3D36727E-40E9-4163-AA9B-2A888515EE0A}"/>
     <hyperlink ref="B26" r:id="rId2" xr:uid="{C54C917C-E036-4BE4-B6FB-4B1DBFCA7517}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{C0B1572D-D254-431F-8B4D-11F259C20ACC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/website_content_creation/authors/Erin_Matula/Author_form_em.xlsx
+++ b/website_content_creation/authors/Erin_Matula/Author_form_em.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Erin_Matula/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{70FCDF86-D160-47AB-A4C8-FCA513196FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{023955E4-B492-4159-BA49-6E88D38C9FE4}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{70FCDF86-D160-47AB-A4C8-FCA513196FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC0BC4D3-C96C-45A6-B6E7-0BFBBE754273}"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>My most recent project:</t>
   </si>
   <si>
-    <t>Visiting and Co-supervised Students</t>
-  </si>
-  <si>
     <t>GIS</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>2023 - current</t>
+  </si>
+  <si>
+    <t>Past WETlab Members</t>
   </si>
 </sst>
 </file>
@@ -831,7 +831,7 @@
   <dimension ref="A1:D1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -892,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -946,7 +946,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -988,13 +988,13 @@
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1077,22 +1077,22 @@
     </row>
     <row r="35" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1102,7 +1102,7 @@
     </row>
     <row r="40" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
